--- a/data_tmp/Restaurants.xlsx
+++ b/data_tmp/Restaurants.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23607"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Team12\data_tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ncu365-my.sharepoint.com/personal/w70024_office365_ncu_edu_tw/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD646A9-9C10-4145-B9D9-88B8158DEF19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{287D2ADB-F59B-4115-AB35-988F25CC895D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="9744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurants" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="408">
   <si>
     <t>Name</t>
   </si>
@@ -32,156 +43,6 @@
   </si>
   <si>
     <t>City</t>
-  </si>
-  <si>
-    <t>Spiral</t>
-  </si>
-  <si>
-    <t>Sofitel Philippine Plaza Manila, CCP Complex, Roxas Blvd, 1300 Pasay, Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Café Ilang-Ilang</t>
-  </si>
-  <si>
-    <t>The Manila Hotel, 1 Rizal Park, Ermita, Manila, 0913 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Sky Deck View Bar</t>
-  </si>
-  <si>
-    <t>The Bayleaf, Muralla St, Intramuros, Manila, 1002 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>My Kitchen by Chef Chris</t>
-  </si>
-  <si>
-    <t>Paco The Oasis Paco Park Hotel, 1032-34 Belen Street, Paco, Manila, Philippines</t>
-  </si>
-  <si>
-    <t>The Aristocrat</t>
-  </si>
-  <si>
-    <t>423 San Andres St, Malate, Manila, 1004 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Barbara’s Heritage Restaurant</t>
-  </si>
-  <si>
-    <t>Plaza Sans Luis Complex, General Luna St, Intramuros, Manila, 1002 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Bistro Remedios</t>
-  </si>
-  <si>
-    <t>1911 M. Adriatico St, Remedios Circle, Malate, 1004 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Movie Stars Café</t>
-  </si>
-  <si>
-    <t>G/F Centris Station, EDSA cor, Quezon Ave, Quezon City, Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Ilustrado Restaurant</t>
-  </si>
-  <si>
-    <t>General Luna Street, Intramuros, Manila, 1002 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Harbor View Restaurant</t>
-  </si>
-  <si>
-    <t>South Dr, Ermita, Manila, 1000 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>MilkyWay Café</t>
-  </si>
-  <si>
-    <t>Milkyway, 900 Antonio Arnaiz Ave, Makati, 1200 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Abe's Restaurant</t>
-  </si>
-  <si>
-    <t>Mcarthur Avenue, Bonifacio Global, Taguig, 1630 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Manam Comfort Filipino</t>
-  </si>
-  <si>
-    <t>Ayala Center Makati, Makati City, Esperanza St, Makati, Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Romulo Café</t>
-  </si>
-  <si>
-    <t>148 Jupiter St. corner Comet St., Bel-Air, Makati, 1209 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Sarsa Kitchen + Bar</t>
-  </si>
-  <si>
-    <t>SM Mega Mall, 202 EDSA Cor Dona Julia Vargas Ave Ortigas Center, Ortigas Center, Mandaluyong, 1550 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>The Singing Cook &amp; Waiters</t>
-  </si>
-  <si>
-    <t>Roxas Blvd, Pasay, Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Gerry's Grill</t>
-  </si>
-  <si>
-    <t>Natividad Lopez St, Ermita, Manila, 1000 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>La Cocina de Tita Moning</t>
-  </si>
-  <si>
-    <t>San Rafael Street San Miguel, Manila, 1005, Philippines</t>
-  </si>
-  <si>
-    <t>People's Palace</t>
-  </si>
-  <si>
-    <t>Greenbelt 3 Esperanza Street, Makati, Metro Manila, 1223, Philippines</t>
-  </si>
-  <si>
-    <t>Kashmir</t>
-  </si>
-  <si>
-    <t>5th Avenue, Taguig, Metro Manila, 1223, Philippines</t>
-  </si>
-  <si>
-    <t>Café Ysabel</t>
-  </si>
-  <si>
-    <t>175 M. Paterno, San Juan, Metro Manila, 1500, Philippines</t>
-  </si>
-  <si>
-    <t>Gloria Maris</t>
-  </si>
-  <si>
-    <t>General Roxas Avenue, Cubao Quezon City, Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>Mendokoro Ramenba</t>
-  </si>
-  <si>
-    <t>Salcedo Village Soliman, Makati, Metro Manila, 1227, Philippines</t>
-  </si>
-  <si>
-    <t>Your Local</t>
-  </si>
-  <si>
-    <t>106 Esteban, Legazpi Village, Makati, Kalakhang Maynila, Philippines</t>
-  </si>
-  <si>
-    <t>Beso Cucina Vinoteka</t>
-  </si>
-  <si>
-    <t>7th Avenue, C3 Building, Bonifacio High Street, Manila, 1634, Philippines</t>
   </si>
   <si>
     <r>
@@ -211,6 +72,31 @@
         <scheme val="minor"/>
       </rPr>
       <t>的餐廳
+Country欄填上</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 City欄填上</t>
     </r>
     <r>
@@ -225,39 +111,1327 @@
       </rPr>
       <t>13</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Country欄填上</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiral</t>
+  </si>
+  <si>
+    <t>Sofitel Philippine Plaza Manila, CCP Complex, Roxas Blvd, 1300 Pasay, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Café Ilang-Ilang</t>
+  </si>
+  <si>
+    <t>The Manila Hotel, 1 Rizal Park, Ermita, Manila, 0913 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Sky Deck View Bar</t>
+  </si>
+  <si>
+    <t>The Bayleaf, Muralla St, Intramuros, Manila, 1002 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>My Kitchen by Chef Chris</t>
+  </si>
+  <si>
+    <t>Paco The Oasis Paco Park Hotel, 1032-34 Belen Street, Paco, Manila, Philippines</t>
+  </si>
+  <si>
+    <t>The Aristocrat</t>
+  </si>
+  <si>
+    <t>423 San Andres St, Malate, Manila, 1004 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Barbara’s Heritage Restaurant</t>
+  </si>
+  <si>
+    <t>Plaza Sans Luis Complex, General Luna St, Intramuros, Manila, 1002 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Bistro Remedios</t>
+  </si>
+  <si>
+    <t>1911 M. Adriatico St, Remedios Circle, Malate, 1004 Metro Manila, Philippines</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Movie Stars Café</t>
+  </si>
+  <si>
+    <t>G/F Centris Station, EDSA cor, Quezon Ave, Quezon City, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Ilustrado Restaurant</t>
+  </si>
+  <si>
+    <t>General Luna Street, Intramuros, Manila, 1002 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Harbor View Restaurant</t>
+  </si>
+  <si>
+    <t>South Dr, Ermita, Manila, 1000 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>MilkyWay Café</t>
+  </si>
+  <si>
+    <t>Milkyway, 900 Antonio Arnaiz Ave, Makati, 1200 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Abe's Restaurant</t>
+  </si>
+  <si>
+    <t>Mcarthur Avenue, Bonifacio Global, Taguig, 1630 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Manam Comfort Filipino</t>
+  </si>
+  <si>
+    <t>Ayala Center Makati, Makati City, Esperanza St, Makati, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Romulo Café</t>
+  </si>
+  <si>
+    <t>148 Jupiter St. corner Comet St., Bel-Air, Makati, 1209 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Sarsa Kitchen + Bar</t>
+  </si>
+  <si>
+    <t>SM Mega Mall, 202 EDSA Cor Dona Julia Vargas Ave Ortigas Center, Ortigas Center, Mandaluyong, 1550 Metro Manila, Philippines</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Singing Cook &amp; Waiters</t>
+  </si>
+  <si>
+    <t>Roxas Blvd, Pasay, Metro Manila, Philippines</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gerry's Grill</t>
+  </si>
+  <si>
+    <t>Natividad Lopez St, Ermita, Manila, 1000 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>La Cocina de Tita Moning</t>
+  </si>
+  <si>
+    <t>San Rafael Street San Miguel, Manila, 1005, Philippines</t>
+  </si>
+  <si>
+    <t>People's Palace</t>
+  </si>
+  <si>
+    <t>Greenbelt 3 Esperanza Street, Makati, Metro Manila, 1223, Philippines</t>
+  </si>
+  <si>
+    <t>Kashmir</t>
+  </si>
+  <si>
+    <t>5th Avenue, Taguig, Metro Manila, 1223, Philippines</t>
+  </si>
+  <si>
+    <t>Café Ysabel</t>
+  </si>
+  <si>
+    <t>175 M. Paterno, San Juan, Metro Manila, 1500, Philippines</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gloria Maris</t>
+  </si>
+  <si>
+    <t>General Roxas Avenue, Cubao Quezon City, Metro Manila, Philippines</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mendokoro Ramenba</t>
+  </si>
+  <si>
+    <t>Salcedo Village Soliman, Makati, Metro Manila, 1227, Philippines</t>
+  </si>
+  <si>
+    <t>Your Local</t>
+  </si>
+  <si>
+    <t>106 Esteban, Legazpi Village, Makati, Kalakhang Maynila, Philippines</t>
+  </si>
+  <si>
+    <t>Beso Cucina Vinoteka</t>
+  </si>
+  <si>
+    <t>7th Avenue, C3 Building, Bonifacio High Street, Manila, 1634, Philippines</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cucina Higala</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>222 Capistrano St, Cagayan de Oro, 9000 Misamis Oriental, Philippines</t>
+  </si>
+  <si>
+    <t>Resto Freeno</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corner 17th Street and, 6th St, Cagayan de Oro, Misamis Oriental, Philippines</t>
+  </si>
+  <si>
+    <t>Circa Eatery</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>G/F Red Planet Hotel, Claro M. Recto Avenue, Cagayan de Oro, 9000 Misamis Oriental, Philippines</t>
+  </si>
+  <si>
+    <t>Yakimix</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cagayan Town Center, Capt. Vicente Roa St, Cagayan de Oro, Lalawigan ng Misamis Oriental, Philippines</t>
+  </si>
+  <si>
+    <t>Bigby's Cafe Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM Cagayan De Oro, Masterson Ave, Cagayan de Oro, 9000 Misamis Oriental, Philippines</t>
+  </si>
+  <si>
+    <t>Fat Monk</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/F, SM CDO Downtown Premier, 88 Osmena St, de Oro, 9000, Cagayan de Oro, Misamis Oriental, Philippines</t>
+  </si>
+  <si>
+    <t>Coldzone by Yanna's - Chavez Street</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miranda Building T Chavez Street, Divisoria Cagayan de Oro City</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circa 1850</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>890 Recto Ave, Cagayan de Oro, 9000 Misamis Oriental, Philippines</t>
+  </si>
+  <si>
+    <t>BoJack's Seafood Grill</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>President C. Garcia Street, P J.R. Borja Ext, Cagayan de Oro, Misamis Oriental, Philippines</t>
+  </si>
+  <si>
+    <t>ArmyNavy Burger + Burrito</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level 2, Centrio Mall, Claro M. Recto Ave, Cagayan de Oro, 9000 Misamis Oriental, Philippines</t>
+  </si>
+  <si>
+    <t>Ogawa Traditional Japanese Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Fort Strip, 5th Ave, Taguig, 1634 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>K-Pub BBQ</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>5th Ave, Taguig, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>L'Opera Ristorante Italiano</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Fort Entertainment Complex 26th cor. 7th Ave., Bonifacio Global City, Taguig, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Early Night?</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd Floor Fort Strip, BGC, Ave, 5th, Taguig, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Aracama</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Fort Strip, 5th Avenue Corner 26th Street, Taguig, 1634 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>NIU by Vikings</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>6th floor, SM Aura Premier, McKinley Parkway, Taguig, 1634 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Raging Bull Chophouse &amp; Bar</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>30th Street Corner 5th Avenue, Bonifacio Global City, Taguig, 1634 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Single Origin</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3, Bonifacio Highstreet, 7th Ave, Taguig, 1634 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Sariwon Korean Barbecue</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2, Bonifacio High Street Central 7th Avenue corner, 29th St, Taguig, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Sunnies Café</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lane P, Taguig, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Mamou</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mcarthur Avenue Bonifacio Global City, Taguig, Market Market Loading/Unloading Bay, Taguig, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Saboten</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>G/F, Serendra, 11th Ave, Taguig, Kalakhang Maynila, Philippines</t>
+  </si>
+  <si>
+    <t>Wildflour Cafe + Bakery</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground Floor Six/NEO 5th Avenue, Corner 26th St, Taguig, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Mendokoro Ramenba BGC</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon Plaza, RCBC Building, 26th St, Taguig, 1630 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>Cafe BLD at Renaissance Johor Bahru Hotel</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, Jalan Permas 11, Bandar Baru Permas Jaya, 81750 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>金龍咖哩魚頭</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>74, Jalan Wong Ah Fook, Bandar Johor Bahru, 80000 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Chez Papa French Bistro And Wine Bar</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>38 and 40, Jalan Jaya, Taman Maju Jaya, 80400 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Tosca Italian Trattoria</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>12, Jalan Ngee Heng, Bandar Johor Bahru, 80000 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Olive Kitchen Bar Puteri Harbour</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower Ground Floor, 11 &amp; 12, Persiaran Puteri Selatan, Puteri Harbour, 79100 Nusajaya, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>德星茶餐室</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>3&amp;5, Jalan Sutera 1, Taman Sentosa, 80150 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Zaituna Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>27, Jalan Glasiar, Taman Tasek, 80200 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>億家海鮮</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 &amp; 23, Jalan Indah 25/1, Taman Bukit Indah 2, 81200 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Naughty Bali</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, Jalan Serampang, Taman Sri Tebrau, 80050 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Amaya Food Gallery</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>82C, Jalan Trus, Bandar Johor Bahru, 80000 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Restaurant Pekin @ Taman Sentosa</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>38, Jalan Baldu 5, Taman Sentosa, 80150 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Rosmarino Italian Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>65, Jalan Kuning 2, Taman Pelangi, 80400 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Food Paradise City Square</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lot J6-09, Level 6, Johor Bahru City Square, 106, Jalan Wong Ah Fook, Bandar Johor Bahru, 80000 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>George &amp; Dragon Cafe Sdn. Bhd.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. 1 &amp; 3, Jalan Glasiar, Taman Tasek, 80200 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Sweetwater Mediterranean Bar &amp; Grill</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>116, Jalan Serampang, Taman Pelangi, 80400 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Xuan Restaurant 聚軒</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>88, Jalan Ibrahim Sultan, Taman Stulang, 80300 Johor Bahru, Johor, Malaysia</t>
+  </si>
+  <si>
+    <t>Cafe Jiran Kota Bharu</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lot 485 Kampung Teluk Baru, Jalan Demit, 15200 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Wau</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt 119, Aras Bawah, Jalan Tg. Petra Semerak, Seksyen 9, 15000 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>中國城市 吉蘭州</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>7, Jln Kebun Sultan, Bandar Kota Bharu, 15300 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Sun Two Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>782-A, Jalan Temenggong, Kelantan, 15000 Kota Bharu, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Ni Dok Ko</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2527, B,GF, Jln Kebun Sultan, Bandar Kota Bharu, 15000 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Kedai Kopi White House</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>1329-L, Jln Sultanah Zainab, Bandar Kota Bharu, 15000 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran KST</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lot 3118, Batu 4, Jalan Kuala Krai, Taman Desa Murni, 15150 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Little Switzerland</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lot 3949, Jalan Post Office Lama, Bandar Kota Bharu, 15000 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Nasi Dagang Wakaf Bharu</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>197, Jalan Puteri Saadong, 16210 Wakaf Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Nasi Kak Wok (Original)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>213, Jalan Masjid Lundang, Kampung Lundang, 15150 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>冠亞酒家</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>454, Jln Pengkalan Chepa, Bandar Kota Bharu, 15200 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>九龙茶餐室 Kow Lun Restoran</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, Jln Kebun Sultan, Bandar Kota Bharu, 15300 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Solehah</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>5473B, Jalan Dusun Muda, Kampung Dusun Muda, 15200 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Manok Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lot 47, Kampung Mulong, 16010 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>FZ CAFÉ</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lot 488/489, Rumah Kedai Lembah Sireh, D1, 15050 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Nasi Kerabu Tumis Moksu Tini</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lot 2216 Wakaf Haji Abdullah, Jalan Masjid, 15100 Kota Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Malis Cafe &amp; Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>AH18, Desa Sri Putra, 16210 Tumpat, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Cheng Mai Thai Food Restoran 清迈泰式餐馆</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.107, Kampung Kulim, Wakaf Bharu Tumpat, Kampung kulim, 16250 Wakaf Bharu, Kelantan, Malaysia</t>
+  </si>
+  <si>
+    <t>Wild Coriander Melaka (Pork Free Asian Restaurant)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>40, Jalan Kampung Pantai, 75200 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>My Homely Café</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>297, Jalan Melaka Raya 2, Taman Melaka Raya, 75000 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>馬六甲硬石餐廳</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>28, Lorong Hang Jebat, 75200 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Manis J Nyonya Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>167, Jalan Bunga Raya, 75100 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Cottage Spices Nyonya Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>171, Jln Merdeka, Taman Melaka Raya, 75000 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Wa Zen Japanese Restaurant Sdn. Bhd.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>38, Jalan Melaka Raya 15, Taman Melaka Raya, 75000 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Southern Court Chinese Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bayview Hotel Melaka, No 55, Jalan Bendahara, Kampung Bukit China, 75100 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Salud Tapas</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>94, Jalan Tun Tan Cheng Lock, 75300 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Sirocco Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holiday Inn, Jalan Syed Abdul Aziz, 75000 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>The Baboon House</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>89, Jalan Tun Tan Cheng Lock, Kampung Bukit China, 75200 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>SamFu Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>108, Jalan Bunga Raya, Kampung Jawa, 75100 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Little Taiwan</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEON Bandaraya Melaka, G59 &amp; G60, No. 2, Jalan Lagenda, Taman I-Lagenda, 75400, Melaka, Melaka, 75400Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Nyonya Makko</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>123, Jln Merdeka, Taman Melaka Raya, 75000 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Bulldog</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>145, Jalan Bendahara, 75100 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Hakka Zhan Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>76, Jalan Laksamana 5, Taman Kota Laksamana, 75200 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Selvam Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, Jalan Temenggong, Bandar Hilir, 75100 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Miller's Kitchen Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.5 11, Seksyen 3,, Jalan KL 3/9, Taman Kota Laksamana, 75200 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Teo Soon Loong Seafood Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kompleks Perniagaan Kota Syahbandar, 42,44, Jalan KPKS 1, 75200 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>東昇園海鮮家</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. 377 &amp; 378, Taman Melaka Raya, 75000 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Makan Nyonya</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jalan Merdeka, Bandar Hilir, Melaka Raya, 75000, Malacca, Malaysia</t>
+  </si>
+  <si>
+    <t>FLOYD KITCHEN MELAKA</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>No 5, Jln Lagenda 3, Taman 1 - Lagenda, 75400 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>素林素食餐廳民宿</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, Jalan Kampung Kuli, 75200 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Bayonya Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>164, Jalan Taman Melaka Raya, 75000, Melaka, Melaka, 75000Malaysia</t>
+  </si>
+  <si>
+    <t>中泰食館</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. 267 &amp; 267A, Jalan Melaka Raya 3, Taman Melaka Raya, Melaka, 75000 Malacca, Malaysia</t>
+  </si>
+  <si>
+    <t>Restaurant Lee Swee Meng</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jalan Melaka Raya 35, Taman Melaka Raya, 75000 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Saravanna - Chettinadu King</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>18, Jalan Bendahara, Kampung Bukit China, 75100 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>The River Grill</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>88, Jalan Kota Laksamana, Melaka, 75200 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Lanun's Cafe Melaka</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. 19, Jalan Ttc 26A, Taman Teknologi Cheng, 75250 Cheng, Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>LET'S GO 52 PULAU MELAKA</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>G88 &amp; 89, RIVIERA@PULAU MELAKA, Jalan Baiduri 1, Taman Pulau Melaka, 75000, Malacca, Malaysia</t>
+  </si>
+  <si>
+    <t>Nancy's Kitchen</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>No 13, Jalan KL 3/8, Taman Kota Laksamana, 75200 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>City Famous Seafood</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. 500, Taman Melaka Raya, 75000, Melaka, Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Kocik Kitchen 小姑娘惹餐館</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, Jalan Tun Tan Cheng Lock, 75200 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Modern World Restaurant</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO 12, Jln KSB 1, TAMAN KOTA SYAHBANDAR, 75200 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>馬來西亞十三州咖啡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11, Jalan Hang Kasturi, 75250 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Ibis Kampung Restaurant by Ibis Melaka</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>249, Jalan Bendahara, Kampung Bukit China, 75100 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>River View Café</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 &amp; 82, Jalan Kampung Pantai, 75200 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>The Limau Purut @ Dataran Pahlawan Melaka</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOT G065, Upper Ground Floor Dataran Pahlawan Melaka Megamall, Bandar Hilir, 75000, Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>大西洋菜館</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>145, Jalan Kubu, Kampung Satu, 75300 Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Yes Thai Restaurant Malacca</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>7, Jalan KL 3/10A, Taman Mahajaya, 75300 Centre, Melaka, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Negeri</t>
+  </si>
+  <si>
+    <t>Jalan Tuanku Munawir, Bandar Seremban, 70000 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Selera Nogori</t>
+  </si>
+  <si>
+    <t>602&amp;603, Jalan Haruan 4/8, Oakland Commercial Centre, 70300 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Jigger &amp; Shaker</t>
+  </si>
+  <si>
+    <t>PT 12653, Jalan Pusat Dagangan Sendayan, 1, Bandar Sri Sendayan, 71950 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Aunty Aini's Garden Café</t>
+  </si>
+  <si>
+    <t>Batu 16, Kampung Chelet, 71800 Nilai, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Negri Restaurant</t>
+  </si>
+  <si>
+    <t>16, Jalan Tuanku Munawir, Negeri Sembilan, 70000 Seremban, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Dpantai</t>
+  </si>
+  <si>
+    <t>Lot 1, Batu 6, Jalan Pantai, 71770 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Hadramawt Emirates Restaurant</t>
+  </si>
+  <si>
+    <t>PT 10871, Persiaran 1 Sendayan Utama Pusat Dagangan Sendayan, Bandar Sri Sendayan, 71950 Sendayan, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>ZAINI SALAI HOUSE ULU BENDUL</t>
+  </si>
+  <si>
+    <t>No. 33A Kampung Ulu bendul, 71500 Tanjung Ipoh, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>City Park Oriental Seremban 2</t>
+  </si>
+  <si>
+    <t>111, 102, Jalan S2 D32, Seremban 2, 70300 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Aljamal Restaurant, Nilai</t>
+  </si>
+  <si>
+    <t>AL Jamal Restaurant Nilai, Avenue 9, Giant Nilai, Shop A 27 &amp; A 28 014 3861, 450, Jalan BBN 1/3, Bandar Baru Nilai, 71800 Nilai, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>RESTORAN NS</t>
+  </si>
+  <si>
+    <t>1355, Lorong Cengal 3/2, Taman Bukit Ampangan, 70400 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Kensington Western Restaurant</t>
+  </si>
+  <si>
+    <t>34, Jalan Era Square 3, Era Square, 70200 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Sega</t>
+  </si>
+  <si>
+    <t>90 Jalan PP 5, Bandar Prima, 70450 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Joint Kitchen</t>
+  </si>
+  <si>
+    <t>Jalan S2 B16, Seremban 2, 70300 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Eden Hakka</t>
+  </si>
+  <si>
+    <t>Malaysia Negeri Sembilan, Seremban, Kampung Kayu Ara, Jalan Kayu Ara邮政编码: 70300</t>
+  </si>
+  <si>
+    <t>Hay Yan Hu Da Opah's Kitchen &amp; Garden</t>
+  </si>
+  <si>
+    <t>44, Kampung Bukit Temiang, 70200 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Seremban Seafood Yesoon Restaurant</t>
+  </si>
+  <si>
+    <t>Lot 3794, 3795, Jalan Tuanku Munawir, 70000 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Pine&amp;Dine</t>
+  </si>
+  <si>
+    <t>Lavendar Heights, 70400 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>La Playa, Bar &amp; Restaurant</t>
+  </si>
+  <si>
+    <t>Lot 43 Batu, 4, Jalan Pantai, 71000 Port Dickson, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>N9 Container Café</t>
+  </si>
+  <si>
+    <t>No 99, Persiaran S2 B1, Seremban 2, 70300 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Asiatique Restaurant</t>
+  </si>
+  <si>
+    <t>Lobby Floor, Royale Chulan Seremban, Jalan Dato A.S Dawood, 70100 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Kemayan Curry House</t>
+  </si>
+  <si>
+    <t>164, Jalan Toman 8, Kemayan Square, 70200 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Han Pi Yuen Restaurant</t>
+  </si>
+  <si>
+    <t>Mezzanine Floor, The Royale Bintang Seremban, Jalan Dato A.S. Dawood, 70100, Seremban, Negeri Sembilan, 70100Malaysia</t>
+  </si>
+  <si>
+    <t>AFT Café</t>
+  </si>
+  <si>
+    <t>1, Persiaran, Jalan Ainsdale 1/5, Bandar Baru Ainsdale, 70200 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>As Sofa Cafe (Seremban)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D-08, 01, Jalan Dataran Sentral 2, Dataran Sentral, 70200 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Blossom Thai Restaurant</t>
+  </si>
+  <si>
+    <t>3836, Ground Floor, Jalan Rasah Jaya 6/8, Taman Rasah Jaya, 70300 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Al Hussain Bistro</t>
+  </si>
+  <si>
+    <t>5, Jalan Tmn Komersial Senawang, Taman Komersil Senawang, 70450 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>珍寶酒樓舊區</t>
+  </si>
+  <si>
+    <t>1958, Jalan Temiang, Taman Unian, 70200 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Shamr Restaurant Nilai</t>
+  </si>
+  <si>
+    <t>LK4-1-08, Laman Komersial Areca, Putra Nilai, 71800 Nilai, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>D'Oasis PD Restaurant</t>
+  </si>
+  <si>
+    <t>4-G-25, Persiaran Waterfront, Kampung Bahasa Kapor, 71000 Port Dickson, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>好記家鄉小食，Hou Kee Restaurant</t>
+  </si>
+  <si>
+    <t>6526, Jalan Rasah, Bukit Rasah, 70300 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>9 Lakes Restaurant</t>
+  </si>
+  <si>
+    <t>Lot 4198, Jalan Desajaya 1, Taman Tasik Jaya, 70400 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Tomyam Kuali Emas</t>
+  </si>
+  <si>
+    <t>31, Jalan Coco Drive 1, Industri Tunku Jaafar 1, 70450 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Bunga Lawang</t>
+  </si>
+  <si>
+    <t>11390, Jalan BBN 6/2b, Desa Cempaka, 71800 Nilai, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Win Jun Restoran</t>
+  </si>
+  <si>
+    <t>No. 156, Jalan S2 G2, Garden Avenue Seremban 2, 70300 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>合發茶餐室</t>
+  </si>
+  <si>
+    <t>333, Jalan Besar, Kampung Seri Mantin, 71700 Mantin, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Crab Restoran Gaban</t>
+  </si>
+  <si>
+    <t>21, Jln Zaaba, Bandar Seremban, 70100 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Sri Inai Cafe 2</t>
+  </si>
+  <si>
+    <t>PT 12894 Bawah, Jalan 1/7F BBN Putra Indah Fasa 3A Bandar Baru Nilai, 71800 Nilai, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>ATOK D'RIVER</t>
+  </si>
+  <si>
+    <t>N.sembilan, 183-1, Jalan Tuanku Antah, 70100 Seremban, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>興發茶餐室</t>
+  </si>
+  <si>
+    <t>Jalan BBN 4/1a, Taman Desa Jasmin, 71800 Nilai, Negeri Sembilan, Malaysia</t>
+  </si>
+  <si>
+    <t>Pelo Kitchen Yibin Food And Beverages</t>
+  </si>
+  <si>
+    <t>Malaysia, Kangar, Taman Pengkalan Asam, Jalan Kangar - Alor Setar, 315,Tingkat Bawah,Perlis 01000</t>
+  </si>
+  <si>
+    <t>koria水上餐廳</t>
+  </si>
+  <si>
+    <t>02000 Kuala Perlis, Perlis, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Pin Ja ( 品佳海鮮飯店)</t>
+  </si>
+  <si>
+    <t>29, 7, Padang Besar, 02100 Padang Besar, Perlis, Malaysia</t>
+  </si>
+  <si>
+    <t>Hai Thien Seafood Restaurant 海天海鲜</t>
+  </si>
+  <si>
+    <t>Jalab Jeti Baru, 02000 Kuala Perlis, Perlis, Malaysia</t>
+  </si>
+  <si>
+    <t>Hannah's Cookies</t>
+  </si>
+  <si>
+    <t>Jalan Kaki Bukit, 01000 Kangar, Perlis, Malaysia</t>
+  </si>
+  <si>
+    <t>富源餐廳</t>
+  </si>
+  <si>
+    <t>53, Jalan Gaya, Pusat Bandar Kota Kinabalu, 88000 Kota Kinabalu, Sabah, Malaysia</t>
+  </si>
+  <si>
+    <t>怡豐茶室</t>
+  </si>
+  <si>
+    <t>127, Jalan Gaya, Pusat Bandar Kota Kinabalu, 88000 Kota Kinabalu, Sabah, Malaysia</t>
+  </si>
+  <si>
+    <t>大茄來海鮮餐廳</t>
+  </si>
+  <si>
+    <t>Grand Industrial Centre, 89500 Penampang, Sabah, Malaysia</t>
+  </si>
+  <si>
+    <t>新記肉骨茶</t>
+  </si>
+  <si>
+    <t>26, Jalan Pantai, pusat bandar, 88000 Kota Kinabalu, Sabah, Malaysia</t>
+  </si>
+  <si>
+    <t>佑記肉骨茶</t>
+  </si>
+  <si>
+    <t>7, Jalan Gaya, Pusat Bandar Kota Kinabalu, 88000 Kota Kinabalu, Sabah, Malaysia</t>
+  </si>
+  <si>
+    <t>Peng You Cafe 朋友美食館</t>
+  </si>
+  <si>
+    <t>38, Jalan Batu Kawa Bazaar, Batu Kawa, 93250 Kuching, Sarawak, Malaysia</t>
+  </si>
+  <si>
+    <t>Lok Garden Seafood 9</t>
+  </si>
+  <si>
+    <t>No. 9, Jalan Batu Lintang, 93200 Kuching, Sarawak, Malaysia</t>
+  </si>
+  <si>
+    <t>Topspot Food Court</t>
+  </si>
+  <si>
+    <t>off, Jalan Padungan, 93100 Kuching, Sarawak, Malaysia</t>
+  </si>
+  <si>
+    <t>中華美食站</t>
+  </si>
+  <si>
+    <t>8526-8531, Lorong Kempas 6, Kempas Heights, 93350 Kuching, Sarawak, Malaysia</t>
+  </si>
+  <si>
+    <t>CX CAFE SDN. BHD</t>
+  </si>
+  <si>
+    <t>110, Jalan Sekama, Sekama, 93300 Kuching, Sarawak, Malaysia</t>
+  </si>
+  <si>
+    <t>QUN HUA KUALA SELANGOR SEAFOOD RESTAURANT 群華瓜雪海鮮酒家</t>
+  </si>
+  <si>
+    <t> NO.1 A JALAN BAGAN SUNGAI YU PASIR PENAMBANG 45000 KUALA SEALNGOR, Pasir Penambang, 45000 Kuala Selangor, Selangor, Malaysia</t>
+  </si>
+  <si>
+    <t>沙沙蘭阿娟美食館</t>
+  </si>
+  <si>
+    <t>41, Jalan Kapar, Sungai Buloh, 45800 Jeram, Selangor, Malaysia</t>
+  </si>
+  <si>
+    <t>揾到食海鮮餐館</t>
+  </si>
+  <si>
+    <t>8, Jln Peninsular Utama 1, Pasir Penambang, 45000 Kuala Selangor, Selangor, Malaysia</t>
+  </si>
+  <si>
+    <t>Brother Yat Restaurant</t>
+  </si>
+  <si>
+    <t>B1-765, Jalan Subang 4, Ultramine Industrial Park, 47500 Subang Jaya, Selangor, Malaysia</t>
+  </si>
+  <si>
+    <t>冲头仔美食馆 Calvin Hot Wok</t>
+  </si>
+  <si>
+    <t>红砖店, 36-GF, Lorong Dato Yusuf Shahbudin 44c, Taman Sentosa, 41200 Klang, Selangor, Malaysia</t>
+  </si>
+  <si>
+    <t>美夫人原鄉館</t>
+  </si>
+  <si>
+    <t>177, Jalan Kampung Cina, 20100 Kuala Terengganu, Terengganu, Malaysia</t>
+  </si>
+  <si>
+    <t>美鳳姐咖哩面</t>
+  </si>
+  <si>
+    <t>178, Jalan Kampung Cina, Kampung Banggul, 20100 Kuala Terengganu, Terengganu, Malaysia</t>
+  </si>
+  <si>
+    <t>Food Gallery 美食阁</t>
+  </si>
+  <si>
+    <t>Jalan Cerong Lanjut, 20300 Kuala Terengganu, Terengganu, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Uncle Chua Signature</t>
+  </si>
+  <si>
+    <t>Jalan Sultan Zainal Abidin, 20000 Kuala Terengganu, Terengganu, Malaysia</t>
+  </si>
+  <si>
+    <t>阿燕咖哩魚麵</t>
+  </si>
+  <si>
+    <t>31, Jalan Jakar, Kampung Jakar, 24000 Chukai, Terengganu, Malaysia</t>
+  </si>
+  <si>
+    <t>Restaurant Kim Lian Kee</t>
+  </si>
+  <si>
+    <t>92, Jalan Hang Lekir, City Centre, 50000 Kuala Lumpur, Wilayah Persekutuan Kuala Lumpur, Malaysia</t>
+  </si>
+  <si>
+    <t>Fook Kee Food Garden</t>
+  </si>
+  <si>
+    <t>Jalan 11/38d, Taman Sri Sinar, 51200 Kuala Lumpur, Wilayah Persekutuan Kuala Lumpur, Malaysia</t>
+  </si>
+  <si>
+    <t>鎰記茶餐館</t>
+  </si>
+  <si>
+    <t>1, Jalan Kamunting, Chow Kit, 50300 Kuala Lumpur, Wilayah Persekutuan Kuala Lumpur, Malaysia</t>
+  </si>
+  <si>
+    <t>明記燒魚美味店</t>
+  </si>
+  <si>
+    <t>39, Jalan Alor, Bukit Bintang, 50200 Kuala Lumpur, Wilayah Persekutuan Kuala Lumpur, Malaysia</t>
+  </si>
+  <si>
+    <t>Restoran Xang Kee</t>
+  </si>
+  <si>
+    <t>Ground Floor, 51 &amp; 53, Jalan Jejaka 9, Maluri, 55100 Cheras, Wilayah Persekutuan Kuala Lumpur, Malaysia</t>
+  </si>
+  <si>
+    <t>Pulau Labuan Restaurant</t>
+  </si>
+  <si>
+    <t>9, Jalan Kemajuan, Bandar Labuan, 87000 Labuan, Wilayah Persekutuan Labuan, Malaysia</t>
+  </si>
+  <si>
+    <t>The Living Room</t>
+  </si>
+  <si>
+    <t>Malaysia Wilayah Persekutuan Labuan, Labuan, Financial Park, Jln Merdeka, Dorsett Grand 462, 87029</t>
+  </si>
+  <si>
+    <t>Loong Fish Head Soup Stall</t>
+  </si>
+  <si>
+    <t>Bandar Labuan, 87000 Labuan, Labuan Federal Territory, Malaysia</t>
+  </si>
+  <si>
+    <t>MN Kopitiam</t>
+  </si>
+  <si>
+    <t> U0397, Jalan Bunga Dahlia, Bandar Labuan, 87000 Labuan, Wilayah Persekutuan Labuan, Malaysia</t>
+  </si>
+  <si>
+    <t>Deep Sea Raff Restaurant</t>
+  </si>
+  <si>
+    <t>Putrajaya Seafood Restaurant</t>
+  </si>
+  <si>
+    <t>Taman Botani Putrajaya,, Presint 1, 62000 Putrajaya, Selangor, Malaysia</t>
+  </si>
+  <si>
+    <t>Slero D Timur</t>
+  </si>
+  <si>
+    <t>Ayer@8, lot c1-lg-02, Jalan P8G, Presint 8, 62250 Putrajaya, Malaysia</t>
+  </si>
+  <si>
+    <t>Serabei Restaurant</t>
+  </si>
+  <si>
+    <t>Ayer@8, A2-G-3A,, Jalan P8G, Presint 8, 62250 Putrajaya, Wilayah Persekutuan Putrajaya, Malaysia</t>
+  </si>
+  <si>
+    <t>Hameed Nasi Kandar</t>
+  </si>
+  <si>
+    <t>S04 Selera Putra,, Presint 1, 62502 Putrajaya, Malaysia</t>
+  </si>
+  <si>
+    <t>Balqis Restaurant - Putrajaya</t>
+  </si>
+  <si>
+    <t>Ayer@8, A1-G-1, Jalan P8e2/10, Presint 8, 62250, Putrajaya, Malaysia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -443,6 +1617,28 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="33">
@@ -870,12 +2066,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -883,53 +2095,50 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -946,107 +2155,155 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>323233</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>293370</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>196215</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>372995</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>155294</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="群組 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D1FD14-BD06-4058-B2D7-5D4AC0520A1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E305B30-F981-42A7-B7CA-32D548EE937D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect r="1695" b="21670"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9819658" y="1268730"/>
-          <a:ext cx="2000867" cy="5423535"/>
+          <a:off x="11075670" y="53340"/>
+          <a:ext cx="4880225" cy="6702779"/>
+          <a:chOff x="9989820" y="53340"/>
+          <a:chExt cx="4346825" cy="7017104"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="圖片 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4E02CB-183A-45A1-AB34-E8E369F0517E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9989820" y="53340"/>
+            <a:ext cx="4346825" cy="7017104"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="直線接點 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B471A02F-972F-476E-8B59-B32BFA5BBA14}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10012680" y="4114800"/>
+            <a:ext cx="2028825" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>210315</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>91450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DFCC53-60C2-42F1-8481-E3EB2C39142D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect r="3196"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12145140" y="59055"/>
-          <a:ext cx="1953765" cy="6947545"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="直線接點 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4B138E-3862-4666-A66F-E18F35004C28}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12344400" y="1771650"/>
+            <a:ext cx="1973580" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1342,21 +2599,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999"/>
   <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.375" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="16.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1364,409 +2621,2929 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" ht="16.149999999999999" customHeight="1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.149999999999999" customHeight="1">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.149999999999999" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" ht="16.149999999999999" customHeight="1">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3</v>
+      </c>
+      <c r="D54" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3</v>
+      </c>
+      <c r="D59" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3</v>
+      </c>
+      <c r="D60" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3</v>
+      </c>
+      <c r="D62" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="3">
+        <v>3</v>
+      </c>
+      <c r="D63" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3</v>
+      </c>
+      <c r="D64" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="3">
+        <v>3</v>
+      </c>
+      <c r="D65" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3</v>
+      </c>
+      <c r="D66" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="3">
+        <v>3</v>
+      </c>
+      <c r="D67" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3</v>
+      </c>
+      <c r="D68" s="3">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="3">
+        <v>3</v>
+      </c>
+      <c r="D69" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="3">
+        <v>3</v>
+      </c>
+      <c r="D70" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="3">
+        <v>3</v>
+      </c>
+      <c r="D71" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="3">
+        <v>3</v>
+      </c>
+      <c r="D72" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3</v>
+      </c>
+      <c r="D73" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3</v>
+      </c>
+      <c r="D74" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="3">
+        <v>3</v>
+      </c>
+      <c r="D75" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3</v>
+      </c>
+      <c r="D76" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="3">
+        <v>3</v>
+      </c>
+      <c r="D77" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="3">
+        <v>3</v>
+      </c>
+      <c r="D78" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="3">
+        <v>3</v>
+      </c>
+      <c r="D79" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="3">
+        <v>3</v>
+      </c>
+      <c r="D80" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="3">
+        <v>3</v>
+      </c>
+      <c r="D81" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="3">
+        <v>3</v>
+      </c>
+      <c r="D82" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="3">
+        <v>3</v>
+      </c>
+      <c r="D83" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="3">
+        <v>3</v>
+      </c>
+      <c r="D84" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="3">
+        <v>3</v>
+      </c>
+      <c r="D85" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3</v>
+      </c>
+      <c r="D86" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="3">
+        <v>3</v>
+      </c>
+      <c r="D87" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="3">
+        <v>3</v>
+      </c>
+      <c r="D88" s="3">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="3">
+        <v>3</v>
+      </c>
+      <c r="D89" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="3">
+        <v>3</v>
+      </c>
+      <c r="D90" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="3">
+        <v>3</v>
+      </c>
+      <c r="D91" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="3">
+        <v>3</v>
+      </c>
+      <c r="D92" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="3">
+        <v>3</v>
+      </c>
+      <c r="D93" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3</v>
+      </c>
+      <c r="D94" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="3">
+        <v>3</v>
+      </c>
+      <c r="D95" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3</v>
+      </c>
+      <c r="D96" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="3">
+        <v>3</v>
+      </c>
+      <c r="D97" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3</v>
+      </c>
+      <c r="D98" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="3">
+        <v>3</v>
+      </c>
+      <c r="D99" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="3">
+        <v>3</v>
+      </c>
+      <c r="D100" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3</v>
+      </c>
+      <c r="D101" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3</v>
+      </c>
+      <c r="D102" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="3">
+        <v>3</v>
+      </c>
+      <c r="D103" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" s="3">
+        <v>3</v>
+      </c>
+      <c r="D104" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="3">
+        <v>3</v>
+      </c>
+      <c r="D105" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="3">
+        <v>3</v>
+      </c>
+      <c r="D106" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="3">
+        <v>3</v>
+      </c>
+      <c r="D107" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108" s="3">
+        <v>3</v>
+      </c>
+      <c r="D108" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" s="3">
+        <v>3</v>
+      </c>
+      <c r="D109" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" s="3">
+        <v>3</v>
+      </c>
+      <c r="D110" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" s="3">
+        <v>3</v>
+      </c>
+      <c r="D111" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" s="3">
+        <v>3</v>
+      </c>
+      <c r="D112" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" s="3">
+        <v>3</v>
+      </c>
+      <c r="D113" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114" s="3">
+        <v>3</v>
+      </c>
+      <c r="D114" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115" s="3">
+        <v>3</v>
+      </c>
+      <c r="D115" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3</v>
+      </c>
+      <c r="D116" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117" s="3">
+        <v>3</v>
+      </c>
+      <c r="D117" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" s="3">
+        <v>3</v>
+      </c>
+      <c r="D118" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" s="3">
+        <v>3</v>
+      </c>
+      <c r="D119" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" s="3">
+        <v>3</v>
+      </c>
+      <c r="D120" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" s="3">
+        <v>3</v>
+      </c>
+      <c r="D121" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="3">
+        <v>3</v>
+      </c>
+      <c r="D122" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C123" s="3">
+        <v>3</v>
+      </c>
+      <c r="D123" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C124" s="3">
+        <v>3</v>
+      </c>
+      <c r="D124" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125" s="3">
+        <v>3</v>
+      </c>
+      <c r="D125" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C126" s="3">
+        <v>3</v>
+      </c>
+      <c r="D126" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" s="6">
+        <v>3</v>
+      </c>
+      <c r="D127" s="6">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" s="6">
+        <v>3</v>
+      </c>
+      <c r="D128" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" s="6">
+        <v>3</v>
+      </c>
+      <c r="D129" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" s="6">
+        <v>3</v>
+      </c>
+      <c r="D130" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C131" s="6">
+        <v>3</v>
+      </c>
+      <c r="D131" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" s="6">
+        <v>3</v>
+      </c>
+      <c r="D132" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133" s="6">
+        <v>3</v>
+      </c>
+      <c r="D133" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C134" s="6">
+        <v>3</v>
+      </c>
+      <c r="D134" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135" s="6">
+        <v>3</v>
+      </c>
+      <c r="D135" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136" s="6">
+        <v>3</v>
+      </c>
+      <c r="D136" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C137" s="6">
+        <v>3</v>
+      </c>
+      <c r="D137" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138" s="6">
+        <v>3</v>
+      </c>
+      <c r="D138" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139" s="6">
+        <v>3</v>
+      </c>
+      <c r="D139" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" s="6">
+        <v>3</v>
+      </c>
+      <c r="D140" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" s="6">
+        <v>3</v>
+      </c>
+      <c r="D141" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142" s="6">
+        <v>3</v>
+      </c>
+      <c r="D142" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" s="6">
+        <v>3</v>
+      </c>
+      <c r="D143" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" s="6">
+        <v>3</v>
+      </c>
+      <c r="D144" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145" s="6">
+        <v>3</v>
+      </c>
+      <c r="D145" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C146" s="6">
+        <v>3</v>
+      </c>
+      <c r="D146" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C147" s="6">
+        <v>3</v>
+      </c>
+      <c r="D147" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148" s="6">
+        <v>3</v>
+      </c>
+      <c r="D148" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C149" s="6">
+        <v>3</v>
+      </c>
+      <c r="D149" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C150" s="6">
+        <v>3</v>
+      </c>
+      <c r="D150" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151" s="6">
+        <v>3</v>
+      </c>
+      <c r="D151" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152" s="6">
+        <v>3</v>
+      </c>
+      <c r="D152" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C153" s="6">
+        <v>3</v>
+      </c>
+      <c r="D153" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C154" s="6">
+        <v>3</v>
+      </c>
+      <c r="D154" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155" s="6">
+        <v>3</v>
+      </c>
+      <c r="D155" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C156" s="6">
+        <v>3</v>
+      </c>
+      <c r="D156" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157" s="6">
+        <v>3</v>
+      </c>
+      <c r="D157" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158" s="6">
+        <v>3</v>
+      </c>
+      <c r="D158" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C159" s="6">
+        <v>3</v>
+      </c>
+      <c r="D159" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C160" s="6">
+        <v>3</v>
+      </c>
+      <c r="D160" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C161" s="6">
+        <v>3</v>
+      </c>
+      <c r="D161" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C162" s="6">
+        <v>3</v>
+      </c>
+      <c r="D162" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C163" s="6">
+        <v>3</v>
+      </c>
+      <c r="D163" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C164" s="6">
+        <v>3</v>
+      </c>
+      <c r="D164" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C165" s="6">
+        <v>3</v>
+      </c>
+      <c r="D165" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C166" s="6">
+        <v>3</v>
+      </c>
+      <c r="D166" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="16.5">
+      <c r="A167" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" t="s">
+        <v>330</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
         <v>19</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="168" spans="1:4" ht="16.5">
+      <c r="A168" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" t="s">
+        <v>332</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="16.5">
+      <c r="A169" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="16.5">
+      <c r="A170" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="16.5">
+      <c r="A171" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="16.5">
+      <c r="A172" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" t="s">
+        <v>340</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="173" spans="1:4" ht="16.5">
+      <c r="A173" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" t="s">
+        <v>342</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="16.5">
+      <c r="A174" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" t="s">
+        <v>344</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="16.5">
+      <c r="A175" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="16.5">
+      <c r="A176" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16.5">
+      <c r="A177" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177">
         <v>21</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="178" spans="1:4" ht="16.5">
+      <c r="A178" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" t="s">
+        <v>352</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16.5">
+      <c r="A179" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="16.5">
+      <c r="A180" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16.5">
+      <c r="A181" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="18">
+      <c r="A182" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" t="s">
+        <v>360</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="183" spans="1:4" ht="16.5">
+      <c r="A183" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16.5">
+      <c r="A184" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" t="s">
+        <v>364</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="16.5">
+      <c r="A185" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" t="s">
+        <v>366</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16.5">
+      <c r="A186" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" t="s">
+        <v>368</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16.5">
+      <c r="A187" t="s">
+        <v>369</v>
+      </c>
+      <c r="B187" t="s">
+        <v>370</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
         <v>23</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="188" spans="1:4" ht="16.5">
+      <c r="A188" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" t="s">
+        <v>372</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+      <c r="D188">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16.5">
+      <c r="A189" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" t="s">
+        <v>374</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16.5">
+      <c r="A190" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" t="s">
+        <v>376</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16.5">
+      <c r="A191" t="s">
+        <v>377</v>
+      </c>
+      <c r="B191" t="s">
+        <v>378</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16.5">
+      <c r="A192" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" t="s">
+        <v>380</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="193" spans="1:4" ht="16.5">
+      <c r="A193" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" t="s">
+        <v>382</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="16.5">
+      <c r="A194" t="s">
+        <v>383</v>
+      </c>
+      <c r="B194" t="s">
+        <v>384</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="16.5">
+      <c r="A195" t="s">
+        <v>385</v>
+      </c>
+      <c r="B195" t="s">
+        <v>386</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+      <c r="D195">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="16.5">
+      <c r="A196" t="s">
+        <v>387</v>
+      </c>
+      <c r="B196" t="s">
+        <v>388</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="16.5">
+      <c r="A197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B197" t="s">
+        <v>390</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
         <v>25</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    </row>
+    <row r="198" spans="1:4" ht="16.5">
+      <c r="A198" t="s">
+        <v>391</v>
+      </c>
+      <c r="B198" t="s">
+        <v>392</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="16.5">
+      <c r="A199" t="s">
+        <v>393</v>
+      </c>
+      <c r="B199" t="s">
+        <v>394</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="18">
+      <c r="A200" t="s">
+        <v>395</v>
+      </c>
+      <c r="B200" t="s">
+        <v>396</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+      <c r="D200">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="16.5">
+      <c r="A201" t="s">
+        <v>397</v>
+      </c>
+      <c r="B201" t="s">
+        <v>394</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="16.5">
+      <c r="A202" t="s">
+        <v>398</v>
+      </c>
+      <c r="B202" t="s">
+        <v>399</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
+    </row>
+    <row r="203" spans="1:4" ht="16.5">
+      <c r="A203" t="s">
+        <v>400</v>
+      </c>
+      <c r="B203" t="s">
+        <v>401</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="16.5">
+      <c r="A204" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204" t="s">
+        <v>403</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="16.5">
+      <c r="A205" t="s">
+        <v>404</v>
+      </c>
+      <c r="B205" t="s">
+        <v>405</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+      <c r="D205">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="16.5">
+      <c r="A206" t="s">
+        <v>406</v>
+      </c>
+      <c r="B206" t="s">
+        <v>407</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1779,4 +5556,163 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x01010061A3BE93338DC14EBEBA036520D6745B" ma:contentTypeVersion="2" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="aea617b53a9d5f5956c8573f3a7c5b82">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4afde342-cee7-4d6a-844f-e5f1a3e66245" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b495d809a9503ba08d5b79ba32869fdb" ns3:_="">
+    <xsd:import namespace="4afde342-cee7-4d6a-844f-e5f1a3e66245"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4afde342-cee7-4d6a-844f-e5f1a3e66245" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="內容類型"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="標題"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{229C1904-282F-44CA-818F-F07093BE9813}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55ECE9E4-A2D8-41B7-8618-89EE7DD3FC46}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1F22803-DA5E-40CB-9EFA-14DA93D51815}"/>
 </file>